--- a/names.xlsx
+++ b/names.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spots\Desktop\NewContent\New folder\Task-JS-Email-Script\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usera\Course\CODED\Phase1.5\Task-JS-Email-Script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065CB0E3-2463-465E-B687-99249DFE0F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B577AB2D-6B49-4DD3-8764-27CDE2747937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{14BA8181-9CE3-4AB3-98DF-BCCC615F1735}"/>
+    <workbookView xWindow="-26655" yWindow="2235" windowWidth="23040" windowHeight="12120" xr2:uid="{14BA8181-9CE3-4AB3-98DF-BCCC615F1735}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Html</t>
   </si>
@@ -62,6 +62,15 @@
   </si>
   <si>
     <t>CSS</t>
+  </si>
+  <si>
+    <t>Ahmad AlAmiri</t>
+  </si>
+  <si>
+    <t>user.alamiri@gmail.com</t>
+  </si>
+  <si>
+    <t>js</t>
   </si>
 </sst>
 </file>
@@ -106,7 +115,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -117,6 +126,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -432,19 +442,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BEC959C-A4A4-4F8B-AF6C-E0EF18ECDC77}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -458,7 +468,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -472,7 +482,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -484,14 +494,29 @@
       </c>
       <c r="D3" s="2">
         <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{F8881740-2CAD-4C16-AFAB-B4126BB33A9F}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{4508F876-69EE-4013-9ED1-432AB55E0B28}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{3614BB3F-BECD-4380-A07C-E97A57496C1D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>